--- a/data/trans_bre/LAWTONB_2R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R2-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 12,46</t>
+          <t>-9,83; 12,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 23,23</t>
+          <t>1,59; 23,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 24,25</t>
+          <t>5,04; 24,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 20,2</t>
+          <t>4,38; 19,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,3; 52,71</t>
+          <t>-27,64; 56,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 124,4</t>
+          <t>5,56; 125,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,05; 158,43</t>
+          <t>18,72; 167,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,42; 70,64</t>
+          <t>11,3; 68,96</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 15,23</t>
+          <t>-5,68; 15,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,68; 28,11</t>
+          <t>7,57; 28,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 21,5</t>
+          <t>2,01; 21,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,44; 23,36</t>
+          <t>8,64; 22,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 57,35</t>
+          <t>-16,66; 58,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,1; 129,14</t>
+          <t>20,43; 120,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,98; 102,92</t>
+          <t>5,94; 107,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,62; 107,82</t>
+          <t>27,64; 101,87</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 24,53</t>
+          <t>1,99; 24,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 22,76</t>
+          <t>-2,73; 22,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 26,09</t>
+          <t>3,94; 26,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 21,88</t>
+          <t>-19,58; 20,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,76; 163,8</t>
+          <t>6,54; 171,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 123,5</t>
+          <t>-10,19; 115,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,24; 161,88</t>
+          <t>14,49; 154,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-79,14; 118,44</t>
+          <t>-76,49; 108,22</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 22,55</t>
+          <t>4,18; 23,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 16,65</t>
+          <t>-1,91; 17,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,29; 25,58</t>
+          <t>8,57; 25,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,35; 23,63</t>
+          <t>10,56; 23,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,16; 136,82</t>
+          <t>14,19; 139,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 82,3</t>
+          <t>-6,53; 87,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,82; 203,24</t>
+          <t>38,3; 195,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,81; 131,81</t>
+          <t>41,84; 131,62</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 13,26</t>
+          <t>2,83; 13,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,4; 17,43</t>
+          <t>6,38; 17,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,57; 19,09</t>
+          <t>9,65; 19,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 17,17</t>
+          <t>-7,8; 17,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,96; 54,86</t>
+          <t>9,68; 57,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,23; 74,18</t>
+          <t>20,33; 71,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,71; 102,58</t>
+          <t>40,09; 104,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 68,81</t>
+          <t>-29,68; 71,28</t>
         </is>
       </c>
     </row>
